--- a/WorkingDocuments/Automation_18032024/Document/Sodocap.xlsx
+++ b/WorkingDocuments/Automation_18032024/Document/Sodocap.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t xml:space="preserve">Cáp kết nối HMI WIENVIEW với PLC MITSHU </t>
   </si>
@@ -65,9 +65,21 @@
     <t>Trắng</t>
   </si>
   <si>
+    <t xml:space="preserve">Cáp nạp Servo Yaskawas </t>
+  </si>
+  <si>
     <t>Tím</t>
   </si>
   <si>
+    <t>Servo Yaskawas</t>
+  </si>
+  <si>
+    <t>Xanh</t>
+  </si>
+  <si>
+    <t>Vàng</t>
+  </si>
+  <si>
     <t>Xám</t>
   </si>
   <si>
@@ -78,9 +90,6 @@
   </si>
   <si>
     <t>Nâu</t>
-  </si>
-  <si>
-    <t>Vàng</t>
   </si>
   <si>
     <t>Password mặc định của màn hình WienView là 6 số 1</t>
@@ -1111,7 +1120,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>121285</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>73660</xdr:rowOff>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1316,8 +1325,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1538,7 +1547,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8851900" y="2832100"/>
+          <a:off x="8851900" y="2901950"/>
           <a:ext cx="203200" cy="203200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1579,7 +1588,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8851900" y="2832100"/>
+          <a:off x="8851900" y="2901950"/>
           <a:ext cx="203200" cy="203200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1620,7 +1629,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8851900" y="2832100"/>
+          <a:off x="8851900" y="2901950"/>
           <a:ext cx="203200" cy="203200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1661,7 +1670,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8851900" y="2832100"/>
+          <a:off x="8851900" y="2901950"/>
           <a:ext cx="203200" cy="203200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1685,8 +1694,8 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>345440</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>64135</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>178435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1829,7 +1838,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17682845" y="2835275"/>
+          <a:off x="17682845" y="2905125"/>
           <a:ext cx="3009900" cy="1416050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1871,7 +1880,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8320405" y="5810250"/>
+          <a:off x="8320405" y="5880100"/>
           <a:ext cx="7416800" cy="3276600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1913,7 +1922,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="11264900"/>
+          <a:off x="2438400" y="11334750"/>
           <a:ext cx="9344025" cy="5362575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1938,7 +1947,7 @@
       <xdr:col>50</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2232,8 +2241,8 @@
   <sheetPr/>
   <dimension ref="A4:BJ74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="BG11" sqref="BG11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="BE23" sqref="BE23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2344,36 +2353,80 @@
     <row r="11" spans="35:35">
       <c r="AI11" s="6"/>
     </row>
-    <row r="17" spans="48:49">
+    <row r="14" ht="20" spans="56:62">
+      <c r="BD14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BI14" s="3"/>
+      <c r="BJ14" s="3"/>
+    </row>
+    <row r="17" spans="48:57">
       <c r="AV17" s="7">
         <v>1</v>
       </c>
       <c r="AW17" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="18" spans="48:49">
+    <row r="18" spans="48:59">
       <c r="AV18" s="7">
         <v>2</v>
       </c>
       <c r="AW18" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="BD18">
+        <v>1</v>
+      </c>
+      <c r="BE18">
+        <v>5</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="19" spans="48:49">
+    <row r="19" spans="48:59">
       <c r="AV19" s="7">
         <v>3</v>
       </c>
       <c r="AW19" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="BD19">
+        <v>2</v>
+      </c>
+      <c r="BE19">
+        <v>2</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="20" spans="48:49">
+    <row r="20" spans="48:59">
       <c r="AV20" s="7">
         <v>4</v>
       </c>
       <c r="AW20" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="BD20">
+        <v>14</v>
+      </c>
+      <c r="BE20">
+        <v>3</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="48:49">
@@ -2381,7 +2434,7 @@
         <v>5</v>
       </c>
       <c r="AW21" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="48:49">
@@ -2389,7 +2442,7 @@
         <v>6</v>
       </c>
       <c r="AW22" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="48:49">
@@ -2397,7 +2450,7 @@
         <v>7</v>
       </c>
       <c r="AW23" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="48:49">
@@ -2405,12 +2458,12 @@
         <v>8</v>
       </c>
       <c r="AW24" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="21" spans="1:49">
       <c r="A25" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
@@ -2421,10 +2474,10 @@
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
       <c r="AV25" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AW25" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="21" spans="16:26">
@@ -2432,7 +2485,7 @@
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
@@ -2470,51 +2523,52 @@
     </row>
     <row r="28" ht="21" spans="19:26">
       <c r="S28" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="22:22">
       <c r="V72" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="22:22">
       <c r="V73" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="22:22">
       <c r="V74" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="AQ4:AW4"/>
     <mergeCell ref="BD4:BJ4"/>
+    <mergeCell ref="BD14:BJ14"/>
     <mergeCell ref="S26:Z26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/WorkingDocuments/Automation_18032024/Document/Sodocap.xlsx
+++ b/WorkingDocuments/Automation_18032024/Document/Sodocap.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t xml:space="preserve">Cáp kết nối HMI WIENVIEW với PLC MITSHU </t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Servo Yaskawas</t>
+  </si>
+  <si>
+    <t>Xanh cây</t>
   </si>
   <si>
     <t>Xanh</t>
@@ -1945,7 +1948,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>295910</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -2241,8 +2244,8 @@
   <sheetPr/>
   <dimension ref="A4:BJ74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="BE23" sqref="BE23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AZ21" sqref="AZ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2250,6 +2253,7 @@
     <col min="13" max="13" width="4.54545454545455" style="2" customWidth="1"/>
     <col min="28" max="28" width="5.45454545454545" style="2" customWidth="1"/>
     <col min="39" max="39" width="5.45454545454545" style="2" customWidth="1"/>
+    <col min="47" max="47" width="12.4" customWidth="1"/>
     <col min="49" max="49" width="12" customWidth="1"/>
     <col min="52" max="52" width="5.45454545454545" style="2" customWidth="1"/>
     <col min="56" max="56" width="16.3636363636364" customWidth="1"/>
@@ -2364,7 +2368,10 @@
       <c r="BI14" s="3"/>
       <c r="BJ14" s="3"/>
     </row>
-    <row r="17" spans="48:57">
+    <row r="17" spans="47:57">
+      <c r="AU17" t="s">
+        <v>13</v>
+      </c>
       <c r="AV17" s="7">
         <v>1</v>
       </c>
@@ -2378,7 +2385,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="48:59">
+    <row r="18" spans="47:59">
+      <c r="AU18" t="s">
+        <v>15</v>
+      </c>
       <c r="AV18" s="7">
         <v>2</v>
       </c>
@@ -2392,10 +2402,13 @@
         <v>5</v>
       </c>
       <c r="BG18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="19" spans="48:59">
+    <row r="19" spans="47:59">
+      <c r="AU19" t="s">
+        <v>9</v>
+      </c>
       <c r="AV19" s="7">
         <v>3</v>
       </c>
@@ -2409,15 +2422,18 @@
         <v>2</v>
       </c>
       <c r="BG19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="20" spans="48:59">
+    <row r="20" spans="47:59">
+      <c r="AU20" t="s">
+        <v>18</v>
+      </c>
       <c r="AV20" s="7">
         <v>4</v>
       </c>
       <c r="AW20" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD20">
         <v>14</v>
@@ -2429,41 +2445,53 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="48:49">
+    <row r="21" spans="47:49">
+      <c r="AU21" t="s">
+        <v>19</v>
+      </c>
       <c r="AV21" s="7">
         <v>5</v>
       </c>
       <c r="AW21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="22" spans="48:49">
+    <row r="22" spans="47:49">
+      <c r="AU22" t="s">
+        <v>20</v>
+      </c>
       <c r="AV22" s="7">
         <v>6</v>
       </c>
       <c r="AW22" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="23" spans="48:49">
+    <row r="23" spans="47:49">
+      <c r="AU23" t="s">
+        <v>21</v>
+      </c>
       <c r="AV23" s="7">
         <v>7</v>
       </c>
       <c r="AW23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="24" spans="48:49">
+    <row r="24" spans="47:49">
+      <c r="AU24" t="s">
+        <v>17</v>
+      </c>
       <c r="AV24" s="7">
         <v>8</v>
       </c>
       <c r="AW24" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="21" spans="1:49">
       <c r="A25" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
@@ -2474,10 +2502,10 @@
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
       <c r="AV25" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW25" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="21" spans="16:26">
@@ -2485,7 +2513,7 @@
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
@@ -2523,43 +2551,43 @@
     </row>
     <row r="28" ht="21" spans="19:26">
       <c r="S28" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="22:22">
       <c r="V72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="22:22">
       <c r="V73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="22:22">
       <c r="V74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
